--- a/Thong_Ke_Kien_Thuc.xlsx
+++ b/Thong_Ke_Kien_Thuc.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Lesson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B139752A-9C60-43A5-843C-2C8C46D60AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EE24EE6-A719-4607-863D-7540B004DC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Numerical order</t>
   </si>
@@ -33,23 +34,546 @@
     <t>Date</t>
   </si>
   <si>
-    <t>New knowledge</t>
-  </si>
-  <si>
     <t>Knowledge statistic</t>
+  </si>
+  <si>
+    <t>− Phiên âm IPA</t>
+  </si>
+  <si>
+    <t>Kỹ năng</t>
+  </si>
+  <si>
+    <t>− Speaking</t>
+  </si>
+  <si>
+    <t>−Reading</t>
+  </si>
+  <si>
+    <t>−Làm dạng theo thứ tự trước, dạng không theo thứ tự làm sau cùng
+−Đọc hết các câu hỏi xem có trả lời được câu nào không</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+new vocabulary</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Peer: ngang hàng
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tube: ống</t>
+    </r>
+  </si>
+  <si>
+    <t>− Làm bài reading Urban farming (4/12)
+− Các câu trả lời thường nằm gần nhau</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">−[C18T4] - Alfred Wegener: science, exploration and the theory of continental drift </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(8/12)</t>
+    </r>
+  </si>
+  <si>
+    <t>−international controversy: cuộc tranh cãi quốc tế
+−Evidence: chứng cứ
+−proposal: đề xuất
+−atmospheric: khí quyển
+−reflect: phản ánh</t>
+  </si>
+  <si>
+    <t>−Writting</t>
+  </si>
+  <si>
+    <t>New knowledge/ achievement</t>
+  </si>
+  <si>
+    <t>−From a quick glance = in general
+−Underwent: trải qua
+−Meeting or exceeding: đáp ứng hoặc vượt qua (so với mục tiêu ban đầu, … )
+−Afterwards: sau đó
+−During the next years: trong những năm sau đó
+−In the year = within the year
+−Climbing to = amounting to = increase
+−Most notably: nổi bật nhất</t>
+  </si>
+  <si>
+    <t>17/01/2025</t>
+  </si>
+  <si>
+    <t>New structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">−Writing task 2: Argument (Agree or Disagree)
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">−From my perspective, I would lean towards such a view and will analyze it in detail in the following essay
+−Initially, it would be advantagous to sthing rather than sthing because + …
+ −I firmly disagree with such statements and this essay will elaborate upon and support my view
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cấu túc đảo ngữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+−Never/ Rarely/ Seldom/ Little + trợ động từ + S + V: hiếm khi ai đó làm gì đó
+−No sooner + trợ động từ + S + V + than + S + V = Hardly + trợ động từ + S + V + when + S + V: Không bao lâu sau khi ... thì ...
+−Not only + trợ động từ + S + V  but S also V: không chỉ ... mà còn
+−Not until/ till + (S+V)/ time + trợ động từ + S + V: Cho đến khi .. thì mới ...
+−At no time/ In no way/ On no condition/ On no account = For no reasons/ Under/In no circumstances/ No longer/ No where/ ... + trợ động từ + S + V
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Chủ ngữ giả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+It + be + N + that + Clause
+It + be + Adj + that + Clause
+It + be + Adj + for somebody + to V
+There + be + N + …
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Mệnh đề nhượng bộ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>−Although/Though/Even though + S + V, S + V (mệnh đề chính)
+−S + V (mệnh đề chính) + although/though/even though + S + V.
+−Notwithstanding + Noun/the fact that + S + V, S + V (mệnh đề chính)
+−Despite/In spite of + Noun/V-ing/the fact that + S + V, S + V (mệnh đề chính)
+−S + V (mệnh đề chính) despite/in spite of Noun/V-ing/the fact that + S + V
+−S + V. Nevertheless, S + V.
+−No matter what/who/where/when/why + S + V, S + V (mệnh đề chính): bất kể là
+−S + V, but S + V in any case hoặc S + V, but in any case S + V.</t>
+    </r>
+  </si>
+  <si>
+    <t>18/01/2025</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">−Able to = can khi nói về </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ai đó</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> có thể </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>LÀM GÌ ĐÓ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, khi nói về </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">điều gì có khả năng xảy ra </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">thì không thay được
+−Relax </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">không paraphrase </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">bằng Entertain
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>−Paraphrase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cho Men and Women nên dùng</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Males and Females</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> hoặc</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Male and Female + Noun
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>−Ở dạng arguments task 2 phần intro ta có thể thay vì nói trực tiếp đứng về bên nào thì ta có thể nói kèm theo lợi ích của nó. Nên giải thích và sau đó cho ví dụ kèm theo, nếu có thể thì viết thêm kết quả</t>
+    </r>
+  </si>
+  <si>
+    <t>−Most importantly
+−Encounter = face (= have a resolve)
+−Agree = lean towards
+−Disagree = go against
+−Disaster: thiên tai
+−Certain: dốc
+−Absorb: hấp thụ
+−Social interaction: giao tiếp xã hội
+−Erosion: xói mòn
+−Curb = reduce = decrease
+−Unplement = apply
+−Poses a threat: tiềm ẩn nguy cơ nguy hiểm
+−Colossal = gigantic: khổng lồ
+−Suitable: thích hợp
+−Depletion: sự cạn kiệt
+−Eleborate upan: trình bày rõ
+−Comprehend = understand
+−Impart: truyền đạt
+−Harsh (khắc nghiệt) = hard
+−Neglect: ngó lơ
+−Bear sthing: chịu đựng cái gì đó
+−Notwithstanding: mặc dù vậy
+−Accountability = responsibility
+−Economically disadvantaged individuals = Low-incomes groups  = people living in poverty = underprivileged individuals
+−Contribute to: đóng góp/ góp phần</t>
+  </si>
+  <si>
+    <t xml:space="preserve">−Almost = nearly = about = approximately
+−Discharge to the outside: xả ra bên ngoài
+−Most typical: điển hình nhất
+−For instance = Example = Such as
+−Beyond: ngoài ra
+−Profit: lợi nhuận
+−Obligations = responsibility
+−Business = enterprise = corporate = entrepreneur
+−Fosters = nurture
+−Philanthropy: lòng từ thiện
+</t>
+  </si>
+  <si>
+    <t>19/01/2025</t>
+  </si>
+  <si>
+    <t>Hanlde (v): Xử lý gì đó
+Attainment = gain = achive
+Macro: vĩ mô
+Hike: vô gia cư
+Wane: suy yếu
+Bright = smart = wise = clever
+Brisk = fast = quick
+Deprecatory, frustrating, rusty: phản kháng (làm nản lòng)
+Embarrassed: Lúng túng
+Bum someone out: làm sai đó buồn/ thất vọng
+Stragglers: người lạc hậu 
+Stroll: đi dạo
+Pedagogical paradigm: mô hình sư phạm
+Arguably (+ that): có thể nói là
+Gap = distance
+Assistance = help
+Tend to = have a trend
+Precedence = priority</t>
+  </si>
+  <si>
+    <t>23/01/2025</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Concrete: Bê tông
+Beyond: Bên ngoài
+Take beyond: Vượt qua</t>
+  </si>
+  <si>
+    <t>Đọc hết tất cả các câu hỏi--&gt; Đánh dấu KEY WORDS --&gt; Đọc bài và tìm kw đó</t>
+  </si>
+  <si>
+    <t>Attract: thu hút
+Attention: chú ý</t>
+  </si>
+  <si>
+    <t>18/03/2025</t>
+  </si>
+  <si>
+    <t>Khi đề hỏi to what extends thì mới được nói vừa đồng ý và vừa không đồng ý, còn khi đề chỉ hỏi đồng ý hoặc không (bất lợi, có lợi) thì chỉ được nói 1 trong 2 ý đề hỏi</t>
+  </si>
+  <si>
+    <t>utilized: tận dụng</t>
+  </si>
+  <si>
+    <t>Tip làm bài</t>
+  </si>
+  <si>
+    <t>Check part 2 xem có dạng map hay không</t>
+  </si>
+  <si>
+    <t>Listening</t>
+  </si>
+  <si>
+    <t>Giá có thể lừa, có thể cho giá trước và giá sau này, hoặc giá sau khi giảm
+Cho thời gian (ngày, tháng) thì có thể nó sẽ nói trước hoặc sau, cho ít nhất 2 ngày để gây nhiễu
+Phân biệt số ít và số nhiều
+ở part 2 preview cái chữ đặt trưng nhất để biết đang đọc tới đối tượng nào và check thông tin</t>
+  </si>
+  <si>
+    <t>Monument: Cái tượng/ đài kỉ niệm
+Predestrian: người đi đường
+Postpond: trì hoãn
+Fund: quỹ tài trợ
+Switch off: tắt
+Maintenace: bảo trì</t>
+  </si>
+  <si>
+    <t>B1: Đọc và hiểu câu hỏi
+B2: Tìm keywords được paraphrase trong câu hỏi
+B3: So sánh và đối chiếu</t>
+  </si>
+  <si>
+    <t>Correlated: tương quan
+Dilation: sự giãn nở
+Assessment: đánh giá
+Refer: tham khảo
+Combat = Eradicate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,7 +584,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -83,11 +607,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -96,10 +658,83 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -377,204 +1012,306 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011DE378-5EBE-477F-B38A-7154B94A32A5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="E9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="17.109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="19" style="2" customWidth="1"/>
+    <col min="4" max="4" width="159" style="2" customWidth="1"/>
+    <col min="5" max="5" width="96.5546875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="57.44140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="44.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19">
+        <v>38657</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="E3" s="16"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="20"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="B5" s="6">
+        <v>45992</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>3</v>
+      </c>
+      <c r="B6" s="19">
+        <v>45992</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45750</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6">
+        <v>45875</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="5">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
